--- a/team_specific_matrix/Santa Clara_A.xlsx
+++ b/team_specific_matrix/Santa Clara_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1652173913043478</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C2">
-        <v>0.6173913043478261</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01304347826086956</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004347826086956522</v>
+        <v>0.003623188405797101</v>
       </c>
       <c r="P2">
-        <v>0.1304347826086956</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06956521739130435</v>
+        <v>0.06884057971014493</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02040816326530612</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="C3">
-        <v>0.02040816326530612</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06802721088435375</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7414965986394558</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1496598639455782</v>
+        <v>0.1585365853658537</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04878048780487805</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6341463414634146</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3170731707317073</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0891089108910891</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02475247524752475</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09900990099009901</v>
+        <v>0.09465020576131687</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2277227722772277</v>
+        <v>0.2386831275720165</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02475247524752475</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1435643564356436</v>
+        <v>0.1440329218106996</v>
       </c>
       <c r="R6">
-        <v>0.0594059405940594</v>
+        <v>0.05761316872427984</v>
       </c>
       <c r="S6">
-        <v>0.3316831683168317</v>
+        <v>0.3292181069958848</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08284023668639054</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02366863905325444</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04733727810650887</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.106508875739645</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05325443786982249</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2248520710059172</v>
+        <v>0.2254901960784314</v>
       </c>
       <c r="R7">
-        <v>0.08875739644970414</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="S7">
-        <v>0.3727810650887574</v>
+        <v>0.3823529411764706</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09523809523809523</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01120448179271709</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06162464985994398</v>
+        <v>0.0539906103286385</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1484593837535014</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01120448179271709</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.15406162464986</v>
+        <v>0.176056338028169</v>
       </c>
       <c r="R8">
-        <v>0.134453781512605</v>
+        <v>0.1314553990610329</v>
       </c>
       <c r="S8">
-        <v>0.3837535014005602</v>
+        <v>0.3849765258215962</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05594405594405594</v>
+        <v>0.04597701149425287</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02797202797202797</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09090909090909091</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1328671328671329</v>
+        <v>0.132183908045977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02097902097902098</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1958041958041958</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="R9">
-        <v>0.1188811188811189</v>
+        <v>0.09770114942528736</v>
       </c>
       <c r="S9">
-        <v>0.3566433566433567</v>
+        <v>0.3735632183908046</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1051625239005736</v>
+        <v>0.1009946442234124</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02676864244741874</v>
+        <v>0.02448355011476664</v>
       </c>
       <c r="E10">
-        <v>0.001912045889101338</v>
+        <v>0.001530221882172915</v>
       </c>
       <c r="F10">
-        <v>0.07265774378585087</v>
+        <v>0.07192042846212701</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1367112810707457</v>
+        <v>0.1346595256312165</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02294455066921606</v>
+        <v>0.02295332823259373</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2045889101338432</v>
+        <v>0.2096403978576894</v>
       </c>
       <c r="R10">
-        <v>0.0869980879541109</v>
+        <v>0.09028309104820199</v>
       </c>
       <c r="S10">
-        <v>0.3422562141491396</v>
+        <v>0.3435348125478194</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003690036900369004</v>
+        <v>0.003184713375796179</v>
       </c>
       <c r="G11">
-        <v>0.1660516605166052</v>
+        <v>0.1560509554140127</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08487084870848709</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="K11">
-        <v>0.1992619926199262</v>
+        <v>0.2038216560509554</v>
       </c>
       <c r="L11">
-        <v>0.5350553505535055</v>
+        <v>0.5318471337579618</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01107011070110701</v>
+        <v>0.009554140127388535</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7032258064516129</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1935483870967742</v>
+        <v>0.1977401129943503</v>
       </c>
       <c r="K12">
-        <v>0.01935483870967742</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L12">
-        <v>0.03870967741935484</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04516129032258064</v>
+        <v>0.03954802259887006</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.74</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1764705882352941</v>
+        <v>0.16</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1470588235294118</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03723404255319149</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1223404255319149</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="I15">
-        <v>0.07446808510638298</v>
+        <v>0.07203389830508475</v>
       </c>
       <c r="J15">
-        <v>0.3829787234042553</v>
+        <v>0.3771186440677966</v>
       </c>
       <c r="K15">
-        <v>0.0851063829787234</v>
+        <v>0.08898305084745763</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005319148936170213</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05319148936170213</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2393617021276596</v>
+        <v>0.2288135593220339</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03125</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2375</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="I16">
-        <v>0.08125</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="J16">
-        <v>0.3125</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="K16">
-        <v>0.1375</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0125</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04375</v>
+        <v>0.04371584699453552</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.14375</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01643835616438356</v>
+        <v>0.01720430107526882</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1534246575342466</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="I17">
-        <v>0.05205479452054795</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="J17">
-        <v>0.4383561643835616</v>
+        <v>0.4559139784946237</v>
       </c>
       <c r="K17">
-        <v>0.1232876712328767</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02191780821917808</v>
+        <v>0.02795698924731183</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08767123287671233</v>
+        <v>0.07956989247311828</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1068493150684932</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03278688524590164</v>
+        <v>0.03167420814479638</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1748633879781421</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I18">
-        <v>0.08743169398907104</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="J18">
-        <v>0.4262295081967213</v>
+        <v>0.416289592760181</v>
       </c>
       <c r="K18">
-        <v>0.1038251366120219</v>
+        <v>0.09502262443438914</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02185792349726776</v>
+        <v>0.02714932126696833</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0546448087431694</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09836065573770492</v>
+        <v>0.09954751131221719</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01772679874869656</v>
+        <v>0.02049530315969257</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.218978102189781</v>
+        <v>0.2126387702818104</v>
       </c>
       <c r="I19">
-        <v>0.08237747653806048</v>
+        <v>0.08198121263877028</v>
       </c>
       <c r="J19">
-        <v>0.3607924921793535</v>
+        <v>0.3757472245943638</v>
       </c>
       <c r="K19">
-        <v>0.1126173096976017</v>
+        <v>0.1084543125533732</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02294056308654849</v>
+        <v>0.02391118701964133</v>
       </c>
       <c r="N19">
-        <v>0.001042752867570386</v>
+        <v>0.0008539709649871904</v>
       </c>
       <c r="O19">
-        <v>0.06465067778936393</v>
+        <v>0.06575576430401367</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.118873826903024</v>
+        <v>0.1101622544833476</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Santa Clara_A.xlsx
+++ b/team_specific_matrix/Santa Clara_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1847826086956522</v>
+        <v>0.180921052631579</v>
       </c>
       <c r="C2">
-        <v>0.5797101449275363</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02173913043478261</v>
+        <v>0.02302631578947368</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003623188405797101</v>
+        <v>0.003289473684210526</v>
       </c>
       <c r="P2">
-        <v>0.1413043478260869</v>
+        <v>0.1414473684210526</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06884057971014493</v>
+        <v>0.07236842105263158</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01829268292682927</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C3">
-        <v>0.01829268292682927</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07317073170731707</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7317073170731707</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1585365853658537</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06122448979591837</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5918367346938775</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3469387755102041</v>
+        <v>0.3653846153846154</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08230452674897119</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02469135802469136</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09465020576131687</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2386831275720165</v>
+        <v>0.2536764705882353</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02880658436213992</v>
+        <v>0.02573529411764706</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1440329218106996</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="R6">
-        <v>0.05761316872427984</v>
+        <v>0.0625</v>
       </c>
       <c r="S6">
-        <v>0.3292181069958848</v>
+        <v>0.3272058823529412</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08823529411764706</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0196078431372549</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04901960784313725</v>
+        <v>0.05240174672489083</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.107843137254902</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04901960784313725</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2254901960784314</v>
+        <v>0.222707423580786</v>
       </c>
       <c r="R7">
-        <v>0.07843137254901961</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="S7">
-        <v>0.3823529411764706</v>
+        <v>0.3799126637554585</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09389671361502347</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009389671361502348</v>
+        <v>0.01037344398340249</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0539906103286385</v>
+        <v>0.05186721991701245</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1408450704225352</v>
+        <v>0.1348547717842324</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009389671361502348</v>
+        <v>0.01037344398340249</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.176056338028169</v>
+        <v>0.1742738589211618</v>
       </c>
       <c r="R8">
-        <v>0.1314553990610329</v>
+        <v>0.1286307053941909</v>
       </c>
       <c r="S8">
-        <v>0.3849765258215962</v>
+        <v>0.3941908713692946</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04597701149425287</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04022988505747126</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08620689655172414</v>
+        <v>0.08717948717948718</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.132183908045977</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01724137931034483</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2068965517241379</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="R9">
-        <v>0.09770114942528736</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="S9">
-        <v>0.3735632183908046</v>
+        <v>0.3743589743589744</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1009946442234124</v>
+        <v>0.1014492753623188</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02448355011476664</v>
+        <v>0.02208419599723948</v>
       </c>
       <c r="E10">
-        <v>0.001530221882172915</v>
+        <v>0.001380262249827467</v>
       </c>
       <c r="F10">
-        <v>0.07192042846212701</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1346595256312165</v>
+        <v>0.1331953071083506</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02295332823259373</v>
+        <v>0.02277432712215321</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2096403978576894</v>
+        <v>0.2111801242236025</v>
       </c>
       <c r="R10">
-        <v>0.09028309104820199</v>
+        <v>0.09109730848861283</v>
       </c>
       <c r="S10">
-        <v>0.3435348125478194</v>
+        <v>0.3443754313319531</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003184713375796179</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="G11">
-        <v>0.1560509554140127</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09554140127388536</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="K11">
-        <v>0.2038216560509554</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L11">
-        <v>0.5318471337579618</v>
+        <v>0.5228571428571429</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009554140127388535</v>
+        <v>0.008571428571428572</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.711864406779661</v>
+        <v>0.7202072538860104</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1977401129943503</v>
+        <v>0.1968911917098446</v>
       </c>
       <c r="K12">
-        <v>0.01694915254237288</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="L12">
-        <v>0.03389830508474576</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03954802259887006</v>
+        <v>0.03626943005181347</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.74</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.16</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03389830508474576</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1271186440677966</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="I15">
-        <v>0.07203389830508475</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J15">
-        <v>0.3771186440677966</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="K15">
-        <v>0.08898305084745763</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00423728813559322</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06779661016949153</v>
+        <v>0.07307692307692308</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2288135593220339</v>
+        <v>0.2269230769230769</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03278688524590164</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2295081967213115</v>
+        <v>0.2261306532663317</v>
       </c>
       <c r="I16">
-        <v>0.07103825136612021</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="J16">
-        <v>0.3114754098360656</v>
+        <v>0.3266331658291458</v>
       </c>
       <c r="K16">
-        <v>0.1366120218579235</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0273224043715847</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04371584699453552</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1475409836065574</v>
+        <v>0.1457286432160804</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01720430107526882</v>
+        <v>0.01740812379110251</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1505376344086022</v>
+        <v>0.1624758220502901</v>
       </c>
       <c r="I17">
-        <v>0.05376344086021505</v>
+        <v>0.05415860735009671</v>
       </c>
       <c r="J17">
-        <v>0.4559139784946237</v>
+        <v>0.4506769825918762</v>
       </c>
       <c r="K17">
-        <v>0.1075268817204301</v>
+        <v>0.1025145067698259</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02795698924731183</v>
+        <v>0.02901353965183752</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07956989247311828</v>
+        <v>0.08123791102514506</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1075268817204301</v>
+        <v>0.1025145067698259</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03167420814479638</v>
+        <v>0.03643724696356275</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1719457013574661</v>
+        <v>0.1700404858299595</v>
       </c>
       <c r="I18">
-        <v>0.09502262443438914</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="J18">
-        <v>0.416289592760181</v>
+        <v>0.4089068825910931</v>
       </c>
       <c r="K18">
-        <v>0.09502262443438914</v>
+        <v>0.1012145748987854</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02714932126696833</v>
+        <v>0.02834008097165992</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06334841628959276</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09954751131221719</v>
+        <v>0.1012145748987854</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02049530315969257</v>
+        <v>0.02061068702290076</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2126387702818104</v>
+        <v>0.2137404580152672</v>
       </c>
       <c r="I19">
-        <v>0.08198121263877028</v>
+        <v>0.083206106870229</v>
       </c>
       <c r="J19">
-        <v>0.3757472245943638</v>
+        <v>0.3732824427480916</v>
       </c>
       <c r="K19">
-        <v>0.1084543125533732</v>
+        <v>0.1083969465648855</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02391118701964133</v>
+        <v>0.02519083969465649</v>
       </c>
       <c r="N19">
-        <v>0.0008539709649871904</v>
+        <v>0.001526717557251908</v>
       </c>
       <c r="O19">
-        <v>0.06575576430401367</v>
+        <v>0.0633587786259542</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101622544833476</v>
+        <v>0.1106870229007634</v>
       </c>
     </row>
   </sheetData>
